--- a/data_output/prism_passive/all_passive_force at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at common max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>339.70514234024233</v>
+        <v>339.70514168044559</v>
       </c>
       <c r="C2">
-        <v>358.5760605613147</v>
+        <v>358.57605966129904</v>
       </c>
       <c r="D2">
-        <v>393.58583091147739</v>
+        <v>393.58582967508164</v>
       </c>
       <c r="E2">
-        <v>447.27805010370236</v>
+        <v>447.27804914207508</v>
       </c>
       <c r="F2">
-        <v>407.28025399340896</v>
+        <v>407.28025232262263</v>
       </c>
       <c r="G2">
-        <v>544.36185616057764</v>
+        <v>544.36185516267494</v>
       </c>
       <c r="H2">
-        <v>550.89046465802312</v>
+        <v>550.8904635889055</v>
       </c>
       <c r="I2">
-        <v>515.29168969748866</v>
+        <v>515.29168870250555</v>
       </c>
       <c r="J2">
-        <v>497.72878409671694</v>
+        <v>497.72878292277318</v>
       </c>
       <c r="K2">
-        <v>468.15369580198785</v>
+        <v>468.15369421493705</v>
       </c>
       <c r="L2">
-        <v>317.15737921282772</v>
+        <v>317.15737868935133</v>
       </c>
       <c r="M2">
-        <v>636.82638795333958</v>
+        <v>636.82638610991546</v>
       </c>
       <c r="N2">
-        <v>423.32962401742492</v>
+        <v>423.32962324447499</v>
       </c>
       <c r="O2">
-        <v>341.91204010665734</v>
+        <v>341.91203969887903</v>
       </c>
       <c r="P2">
-        <v>535.60285653953895</v>
+        <v>535.60285459791169</v>
       </c>
       <c r="Q2">
-        <v>384.85994745215885</v>
+        <v>384.85994671435111</v>
       </c>
       <c r="R2">
-        <v>729.14378215006047</v>
+        <v>729.143780703071</v>
       </c>
       <c r="S2">
-        <v>908.67580675788611</v>
+        <v>908.67580298102996</v>
       </c>
       <c r="T2">
-        <v>675.60944197666674</v>
+        <v>675.60944117304632</v>
       </c>
       <c r="U2">
-        <v>394.96962992990694</v>
+        <v>394.96962860464026</v>
       </c>
       <c r="V2">
-        <v>682.60116954950001</v>
+        <v>682.60116780536384</v>
       </c>
       <c r="W2">
-        <v>384.45950784311555</v>
+        <v>384.45950705818882</v>
       </c>
       <c r="X2">
-        <v>314.78293922485676</v>
+        <v>314.7829385748243</v>
       </c>
       <c r="Y2">
-        <v>557.91328991982289</v>
+        <v>557.91328884821712</v>
       </c>
       <c r="Z2">
-        <v>273.31936521038307</v>
+        <v>273.31936476055881</v>
       </c>
       <c r="AA2">
-        <v>420.39565176877414</v>
+        <v>420.39565100616784</v>
       </c>
       <c r="AB2">
-        <v>267.95093330472531</v>
+        <v>267.95093292908746</v>
       </c>
       <c r="AC2">
-        <v>312.46318622603451</v>
+        <v>312.46318551650052</v>
       </c>
       <c r="AD2">
-        <v>251.34450277177993</v>
+        <v>251.34450237585273</v>
       </c>
       <c r="AE2">
-        <v>277.50229663157467</v>
+        <v>277.50229580149323</v>
       </c>
       <c r="AF2">
-        <v>541.5958269287745</v>
+        <v>541.59582587099464</v>
       </c>
       <c r="AG2">
-        <v>326.68203302201874</v>
+        <v>326.68203245898928</v>
       </c>
       <c r="AH2">
-        <v>460.76578821259494</v>
+        <v>460.76578757364865</v>
       </c>
       <c r="AI2">
-        <v>512.97016294658727</v>
+        <v>512.97016196256152</v>
       </c>
       <c r="AJ2">
-        <v>636.78686117498148</v>
+        <v>636.78685909196986</v>
       </c>
       <c r="AK2">
-        <v>281.08258446617907</v>
+        <v>281.08258403811641</v>
       </c>
       <c r="AL2">
-        <v>618.10611126233005</v>
+        <v>618.10611043060032</v>
       </c>
       <c r="AM2">
-        <v>577.50735473592567</v>
+        <v>577.50735361712998</v>
       </c>
       <c r="AN2">
-        <v>351.44220960372195</v>
+        <v>351.44220921357737</v>
       </c>
       <c r="AO2">
-        <v>541.99920685622033</v>
+        <v>541.99920584889185</v>
       </c>
       <c r="AP2">
-        <v>393.35445795557717</v>
+        <v>393.35445730605807</v>
       </c>
       <c r="AQ2">
-        <v>553.78064202381586</v>
+        <v>553.780641310654</v>
       </c>
       <c r="AR2">
-        <v>567.21773588659744</v>
+        <v>567.21773390969383</v>
       </c>
       <c r="AS2">
-        <v>567.15310126555698</v>
+        <v>567.15310007096787</v>
       </c>
       <c r="AT2">
-        <v>302.45429125855873</v>
+        <v>302.45429079300038</v>
       </c>
       <c r="AU2">
-        <v>660.94442086586059</v>
+        <v>660.94441895878356</v>
       </c>
       <c r="AV2">
-        <v>302.46922206311052</v>
+        <v>302.46922151864737</v>
       </c>
       <c r="AW2">
-        <v>255.24948200826802</v>
+        <v>255.24948150442265</v>
       </c>
       <c r="AX2">
-        <v>410.17669541424647</v>
+        <v>410.17669478281294</v>
       </c>
       <c r="AY2">
-        <v>291.1591452933356</v>
+        <v>291.15914473414227</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>394.55282436255243</v>
+        <v>394.55282355121545</v>
       </c>
       <c r="C3">
-        <v>321.4779269338153</v>
+        <v>321.47792631562521</v>
       </c>
       <c r="D3">
-        <v>366.19467064988908</v>
+        <v>366.19466954865351</v>
       </c>
       <c r="E3">
-        <v>710.61686447313002</v>
+        <v>710.61686060448335</v>
       </c>
       <c r="F3">
-        <v>291.58928885370545</v>
+        <v>291.58928846239218</v>
       </c>
       <c r="G3">
-        <v>659.25914625376583</v>
+        <v>659.25914516323212</v>
       </c>
       <c r="H3">
-        <v>566.42448056098362</v>
+        <v>566.42447892460098</v>
       </c>
       <c r="I3">
-        <v>547.91055330855181</v>
+        <v>547.91055244103336</v>
       </c>
       <c r="J3">
-        <v>408.50437242936715</v>
+        <v>408.50437131910797</v>
       </c>
       <c r="K3">
-        <v>623.39726708254375</v>
+        <v>623.39726560505414</v>
       </c>
       <c r="L3">
-        <v>479.71604858978623</v>
+        <v>479.71604754404262</v>
       </c>
       <c r="M3">
-        <v>689.28236983049931</v>
+        <v>689.30653778860233</v>
       </c>
       <c r="N3">
-        <v>557.36065932308509</v>
+        <v>557.36065828433175</v>
       </c>
       <c r="O3">
-        <v>405.85417706760114</v>
+        <v>405.85417617272054</v>
       </c>
       <c r="P3">
-        <v>635.83259624636162</v>
+        <v>635.83259376430624</v>
       </c>
       <c r="Q3">
-        <v>438.70603882355135</v>
+        <v>438.70603799582949</v>
       </c>
       <c r="R3">
-        <v>401.84472102309633</v>
+        <v>401.84472039471194</v>
       </c>
       <c r="S3">
-        <v>670.13206099087313</v>
+        <v>670.13205872027754</v>
       </c>
       <c r="T3">
-        <v>646.37686647758437</v>
+        <v>646.3768652970565</v>
       </c>
       <c r="U3">
-        <v>508.64327977641477</v>
+        <v>508.64327825488402</v>
       </c>
       <c r="V3">
-        <v>717.20197524060802</v>
+        <v>717.20197237273658</v>
       </c>
       <c r="W3">
-        <v>352.16688069786687</v>
+        <v>352.16687991700474</v>
       </c>
       <c r="X3">
-        <v>378.83354703763138</v>
+        <v>378.83354585281717</v>
       </c>
       <c r="Y3">
-        <v>506.45897596316445</v>
+        <v>506.45897481168504</v>
       </c>
       <c r="Z3">
-        <v>341.10286714437922</v>
+        <v>341.10286656417946</v>
       </c>
       <c r="AA3">
-        <v>390.77367707236061</v>
+        <v>390.77367655576865</v>
       </c>
       <c r="AB3">
-        <v>280.14809348617956</v>
+        <v>280.14809302779514</v>
       </c>
       <c r="AC3">
-        <v>341.72727167401098</v>
+        <v>341.7272710843813</v>
       </c>
       <c r="AD3">
-        <v>390.88737594727235</v>
+        <v>390.88737486782725</v>
       </c>
       <c r="AE3">
-        <v>264.24753535863783</v>
+        <v>264.24753498697675</v>
       </c>
       <c r="AF3">
-        <v>426.36129366138152</v>
+        <v>426.36129281010335</v>
       </c>
       <c r="AG3">
-        <v>296.61433988757466</v>
+        <v>296.61433885875391</v>
       </c>
       <c r="AH3">
-        <v>547.84590207724875</v>
+        <v>547.84590141824413</v>
       </c>
       <c r="AI3">
-        <v>352.01395131395981</v>
+        <v>352.01395065688649</v>
       </c>
       <c r="AJ3">
-        <v>679.75691277090255</v>
+        <v>679.7569108699505</v>
       </c>
       <c r="AK3">
-        <v>331.65653786190506</v>
+        <v>331.65653735656542</v>
       </c>
       <c r="AL3">
-        <v>495.64278269615221</v>
+        <v>495.64278168272295</v>
       </c>
       <c r="AM3">
-        <v>630.06753096758405</v>
+        <v>630.06752982188129</v>
       </c>
       <c r="AN3">
-        <v>333.83415330859907</v>
+        <v>333.83415277465247</v>
       </c>
       <c r="AO3">
-        <v>574.4739666616947</v>
+        <v>574.47396520433028</v>
       </c>
       <c r="AP3">
-        <v>405.55238473541846</v>
+        <v>405.55238414202881</v>
       </c>
       <c r="AQ3">
-        <v>369.2940558190765</v>
+        <v>369.29405526785814</v>
       </c>
       <c r="AR3">
-        <v>588.48482553864517</v>
+        <v>588.48482407890594</v>
       </c>
       <c r="AS3">
-        <v>495.7668947974098</v>
+        <v>495.76689403341294</v>
       </c>
       <c r="AT3">
-        <v>299.54127184288524</v>
+        <v>299.5412713430876</v>
       </c>
       <c r="AU3">
-        <v>676.10378677596145</v>
+        <v>676.10378526446004</v>
       </c>
       <c r="AV3">
-        <v>312.97361124101553</v>
+        <v>312.97361080564002</v>
       </c>
       <c r="AW3">
-        <v>302.15182047333968</v>
+        <v>302.15181993512573</v>
       </c>
       <c r="AX3">
-        <v>534.10622062615153</v>
+        <v>534.10621957810838</v>
       </c>
       <c r="AY3">
-        <v>399.2711561894277</v>
+        <v>399.27115488002937</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_force at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at common max ROM.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>339.70514168044559</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>358.57605966129904</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>393.58582967508164</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>447.27804914207508</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>407.28025232262263</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>544.36185516267494</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>550.8904635889055</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>515.29168870250555</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>497.72878292277318</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>468.15369421493705</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>317.15737868935133</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>636.82638610991546</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>423.32962324447499</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>341.91203969887903</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>535.60285459791169</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>384.85994671435111</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>729.143780703071</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>908.67580298102996</v>
@@ -588,55 +477,55 @@
         <v>273.31936476055881</v>
       </c>
       <c r="AA2">
-        <v>420.39565100616784</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>267.95093292908746</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>312.46318551650052</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>251.34450237585273</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>277.50229580149323</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>541.59582587099464</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>326.68203245898928</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>460.76578757364865</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>512.97016196256152</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>636.78685909196986</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>281.08258403811641</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>618.10611043060032</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>577.50735361712998</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>351.44220921357737</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>541.99920584889185</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>393.35445730605807</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>553.780641310654</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>567.21773390969383</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>394.55282355121545</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>321.47792631562521</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>366.19466954865351</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>710.61686060448335</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>291.58928846239218</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>659.25914516323212</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>566.42447892460098</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>547.91055244103336</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>408.50437131910797</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>623.39726560505414</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>479.71604754404262</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>689.30653778860233</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>557.36065828433175</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>405.85417617272054</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>635.83259376430624</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>438.70603799582949</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>401.84472039471194</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>670.13205872027754</v>
@@ -743,55 +629,55 @@
         <v>341.10286656417946</v>
       </c>
       <c r="AA3">
-        <v>390.77367655576865</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>280.14809302779514</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>341.7272710843813</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>390.88737486782725</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>264.24753498697675</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>426.36129281010335</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>296.61433885875391</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>547.84590141824413</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>352.01395065688649</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>679.7569108699505</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>331.65653735656542</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>495.64278168272295</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>630.06752982188129</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>333.83415277465247</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>574.47396520433028</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>405.55238414202881</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>369.29405526785814</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>588.48482407890594</v>

--- a/data_output/prism_passive/all_passive_force at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at common max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>339.70514234024233</v>
+        <v>341.91203969887903</v>
       </c>
       <c r="C2">
-        <v>358.5760605613147</v>
+        <v>729.143780703071</v>
       </c>
       <c r="D2">
-        <v>393.58583091147739</v>
+        <v>351.44220921357737</v>
       </c>
       <c r="E2">
-        <v>447.27805010370236</v>
+        <v>553.780641310654</v>
       </c>
       <c r="F2">
         <v>407.28025399340896</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>394.55282436255243</v>
+        <v>405.85417617272054</v>
       </c>
       <c r="C3">
-        <v>321.4779269338153</v>
+        <v>401.84472039471194</v>
       </c>
       <c r="D3">
-        <v>366.19467064988908</v>
+        <v>333.83415277465247</v>
       </c>
       <c r="E3">
-        <v>710.61686447313002</v>
+        <v>345.12933316689646</v>
       </c>
       <c r="F3">
         <v>291.58928885370545</v>

--- a/data_output/prism_passive/all_passive_force at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at common max ROM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>339.70514234024233</v>
+        <v>423.32962324447499</v>
       </c>
       <c r="C2">
-        <v>358.5760605613147</v>
+        <v>341.91203969887903</v>
       </c>
       <c r="D2">
-        <v>393.58583091147739</v>
+        <v>577.50735361712998</v>
       </c>
       <c r="E2">
-        <v>447.27805010370236</v>
+        <v>351.44220921357737</v>
       </c>
       <c r="F2">
         <v>407.28025399340896</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>394.55282436255243</v>
+        <v>557.36065828433175</v>
       </c>
       <c r="C3">
-        <v>321.4779269338153</v>
+        <v>405.85417617272054</v>
       </c>
       <c r="D3">
-        <v>366.19467064988908</v>
+        <v>630.06752982188129</v>
       </c>
       <c r="E3">
-        <v>710.61686447313002</v>
+        <v>333.83415277465247</v>
       </c>
       <c r="F3">
         <v>291.58928885370545</v>

--- a/data_output/prism_passive/all_passive_force at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at common max ROM.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>339.70514168044559</v>
+      </c>
+      <c r="C2">
+        <v>358.57605966129904</v>
+      </c>
+      <c r="D2">
+        <v>393.58582967508164</v>
+      </c>
+      <c r="E2">
+        <v>447.27804914207508</v>
+      </c>
+      <c r="F2">
+        <v>407.28025232262263</v>
+      </c>
+      <c r="G2">
+        <v>544.36185516267494</v>
+      </c>
+      <c r="H2">
+        <v>550.8904635889055</v>
+      </c>
+      <c r="I2">
+        <v>515.29168870250555</v>
+      </c>
+      <c r="J2">
+        <v>497.72878292277318</v>
+      </c>
+      <c r="K2">
+        <v>468.15369421493705</v>
+      </c>
+      <c r="L2">
+        <v>317.15737868935133</v>
+      </c>
+      <c r="M2">
+        <v>636.82638610991546</v>
+      </c>
+      <c r="N2">
         <v>423.32962324447499</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>341.91203969887903</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>535.60285459791169</v>
+      </c>
+      <c r="Q2">
+        <v>384.85994671435111</v>
+      </c>
+      <c r="R2">
+        <v>729.143780703071</v>
+      </c>
+      <c r="S2">
+        <v>908.67580298102996</v>
+      </c>
+      <c r="T2">
+        <v>675.60944117304632</v>
+      </c>
+      <c r="U2">
+        <v>394.96962860464026</v>
+      </c>
+      <c r="V2">
+        <v>682.60116780536384</v>
+      </c>
+      <c r="W2">
+        <v>384.45950705818882</v>
+      </c>
+      <c r="X2">
+        <v>314.7829385748243</v>
+      </c>
+      <c r="Y2">
+        <v>557.91328884821712</v>
+      </c>
+      <c r="Z2">
+        <v>273.31936476055881</v>
+      </c>
+      <c r="AA2">
+        <v>420.39565100616784</v>
+      </c>
+      <c r="AB2">
+        <v>267.95093292908746</v>
+      </c>
+      <c r="AC2">
+        <v>312.46318551650052</v>
+      </c>
+      <c r="AD2">
+        <v>251.34450237585273</v>
+      </c>
+      <c r="AE2">
+        <v>277.50229580149323</v>
+      </c>
+      <c r="AF2">
+        <v>541.59582587099464</v>
+      </c>
+      <c r="AG2">
+        <v>326.68203245898928</v>
+      </c>
+      <c r="AH2">
+        <v>460.76578757364865</v>
+      </c>
+      <c r="AI2">
+        <v>512.97016196256152</v>
+      </c>
+      <c r="AJ2">
+        <v>636.78685909196986</v>
+      </c>
+      <c r="AK2">
+        <v>281.08258403811641</v>
+      </c>
+      <c r="AL2">
+        <v>618.10611043060032</v>
+      </c>
+      <c r="AM2">
         <v>577.50735361712998</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>351.44220921357737</v>
       </c>
-      <c r="F2">
-        <v>407.28025399340896</v>
-      </c>
-      <c r="G2">
-        <v>544.36185616057764</v>
-      </c>
-      <c r="H2">
-        <v>550.89046465802312</v>
-      </c>
-      <c r="I2">
-        <v>515.29168969748866</v>
-      </c>
-      <c r="J2">
-        <v>497.72878409671694</v>
-      </c>
-      <c r="K2">
-        <v>468.15369580198785</v>
-      </c>
-      <c r="L2">
-        <v>317.15737921282772</v>
-      </c>
-      <c r="M2">
-        <v>636.82638795333958</v>
-      </c>
-      <c r="N2">
-        <v>423.32962401742492</v>
-      </c>
-      <c r="O2">
-        <v>341.91204010665734</v>
-      </c>
-      <c r="P2">
-        <v>535.60285653953895</v>
-      </c>
-      <c r="Q2">
-        <v>384.85994745215885</v>
-      </c>
-      <c r="R2">
-        <v>729.14378215006047</v>
-      </c>
-      <c r="S2">
-        <v>908.67580675788611</v>
-      </c>
-      <c r="T2">
-        <v>675.60944197666674</v>
-      </c>
-      <c r="U2">
-        <v>394.96962992990694</v>
-      </c>
-      <c r="V2">
-        <v>682.60116954950001</v>
-      </c>
-      <c r="W2">
-        <v>384.45950784311555</v>
-      </c>
-      <c r="X2">
-        <v>314.78293922485676</v>
-      </c>
-      <c r="Y2">
-        <v>557.91328991982289</v>
-      </c>
-      <c r="Z2">
-        <v>273.31936521038307</v>
-      </c>
-      <c r="AA2">
-        <v>420.39565176877414</v>
-      </c>
-      <c r="AB2">
-        <v>267.95093330472531</v>
-      </c>
-      <c r="AC2">
-        <v>312.46318622603451</v>
-      </c>
-      <c r="AD2">
-        <v>251.34450277177993</v>
-      </c>
-      <c r="AE2">
-        <v>277.50229663157467</v>
-      </c>
-      <c r="AF2">
-        <v>541.5958269287745</v>
-      </c>
-      <c r="AG2">
-        <v>326.68203302201874</v>
-      </c>
-      <c r="AH2">
-        <v>460.76578821259494</v>
-      </c>
-      <c r="AI2">
-        <v>512.97016294658727</v>
-      </c>
-      <c r="AJ2">
-        <v>636.78686117498148</v>
-      </c>
-      <c r="AK2">
-        <v>281.08258446617907</v>
-      </c>
-      <c r="AL2">
-        <v>618.10611126233005</v>
-      </c>
-      <c r="AM2">
-        <v>577.50735473592567</v>
-      </c>
-      <c r="AN2">
-        <v>351.44220960372195</v>
-      </c>
       <c r="AO2">
-        <v>541.99920685622033</v>
+        <v>541.99920584889185</v>
       </c>
       <c r="AP2">
-        <v>377.17473550377809</v>
+        <v>377.17473491649667</v>
       </c>
       <c r="AQ2">
-        <v>553.78064202381586</v>
+        <v>553.780641310654</v>
       </c>
       <c r="AR2">
-        <v>567.21773588659744</v>
+        <v>567.21773390969383</v>
       </c>
       <c r="AS2">
-        <v>567.15310126555698</v>
+        <v>567.15310007096787</v>
       </c>
       <c r="AT2">
-        <v>302.45429125855873</v>
+        <v>302.45429079300038</v>
       </c>
       <c r="AU2">
-        <v>660.94442086586059</v>
+        <v>660.94441895878356</v>
       </c>
       <c r="AV2">
-        <v>302.46922206311052</v>
+        <v>302.46922151864737</v>
       </c>
       <c r="AW2">
-        <v>255.24948200826802</v>
+        <v>255.24948150442265</v>
       </c>
       <c r="AX2">
-        <v>410.17669541424647</v>
+        <v>410.17669478281294</v>
       </c>
       <c r="AY2">
-        <v>291.1591452933356</v>
+        <v>291.15914473414227</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>394.55282355121545</v>
+      </c>
+      <c r="C3">
+        <v>321.47792631562521</v>
+      </c>
+      <c r="D3">
+        <v>366.19466954865351</v>
+      </c>
+      <c r="E3">
+        <v>710.61686060448335</v>
+      </c>
+      <c r="F3">
+        <v>291.58928846239218</v>
+      </c>
+      <c r="G3">
+        <v>659.25914516323212</v>
+      </c>
+      <c r="H3">
+        <v>566.42447892460098</v>
+      </c>
+      <c r="I3">
+        <v>547.91055244103336</v>
+      </c>
+      <c r="J3">
+        <v>408.50437131910797</v>
+      </c>
+      <c r="K3">
+        <v>623.39726560505414</v>
+      </c>
+      <c r="L3">
+        <v>479.71604754404262</v>
+      </c>
+      <c r="M3">
+        <v>689.30653778860233</v>
+      </c>
+      <c r="N3">
         <v>557.36065828433175</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>405.85417617272054</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>635.83259376430624</v>
+      </c>
+      <c r="Q3">
+        <v>438.70603799582949</v>
+      </c>
+      <c r="R3">
+        <v>401.84472039471194</v>
+      </c>
+      <c r="S3">
+        <v>670.13205872027754</v>
+      </c>
+      <c r="T3">
+        <v>646.3768652970565</v>
+      </c>
+      <c r="U3">
+        <v>508.64327825488402</v>
+      </c>
+      <c r="V3">
+        <v>717.20197237273658</v>
+      </c>
+      <c r="W3">
+        <v>351.11534914769328</v>
+      </c>
+      <c r="X3">
+        <v>378.83354585281717</v>
+      </c>
+      <c r="Y3">
+        <v>506.45897481168504</v>
+      </c>
+      <c r="Z3">
+        <v>341.10286656417946</v>
+      </c>
+      <c r="AA3">
+        <v>390.77367655576865</v>
+      </c>
+      <c r="AB3">
+        <v>280.14809302779514</v>
+      </c>
+      <c r="AC3">
+        <v>341.7272710843813</v>
+      </c>
+      <c r="AD3">
+        <v>390.88737486782725</v>
+      </c>
+      <c r="AE3">
+        <v>264.24753498697675</v>
+      </c>
+      <c r="AF3">
+        <v>426.36129281010335</v>
+      </c>
+      <c r="AG3">
+        <v>296.61433885875391</v>
+      </c>
+      <c r="AH3">
+        <v>462.49656607331872</v>
+      </c>
+      <c r="AI3">
+        <v>352.01395065688649</v>
+      </c>
+      <c r="AJ3">
+        <v>679.7569108699505</v>
+      </c>
+      <c r="AK3">
+        <v>331.65653735656542</v>
+      </c>
+      <c r="AL3">
+        <v>495.64278168272295</v>
+      </c>
+      <c r="AM3">
         <v>630.06752982188129</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>333.83415277465247</v>
       </c>
-      <c r="F3">
-        <v>291.58928885370545</v>
-      </c>
-      <c r="G3">
-        <v>659.25914625376583</v>
-      </c>
-      <c r="H3">
-        <v>566.42448056098362</v>
-      </c>
-      <c r="I3">
-        <v>547.91055330855181</v>
-      </c>
-      <c r="J3">
-        <v>408.50437242936715</v>
-      </c>
-      <c r="K3">
-        <v>623.39726708254375</v>
-      </c>
-      <c r="L3">
-        <v>479.71604858978623</v>
-      </c>
-      <c r="M3">
-        <v>689.28236983049931</v>
-      </c>
-      <c r="N3">
-        <v>557.36065932308509</v>
-      </c>
-      <c r="O3">
-        <v>405.85417706760114</v>
-      </c>
-      <c r="P3">
-        <v>635.83259624636162</v>
-      </c>
-      <c r="Q3">
-        <v>438.70603882355135</v>
-      </c>
-      <c r="R3">
-        <v>401.84472102309633</v>
-      </c>
-      <c r="S3">
-        <v>670.13206099087313</v>
-      </c>
-      <c r="T3">
-        <v>646.37686647758437</v>
-      </c>
-      <c r="U3">
-        <v>508.64327977641477</v>
-      </c>
-      <c r="V3">
-        <v>717.20197524060802</v>
-      </c>
-      <c r="W3">
-        <v>351.11535003112095</v>
-      </c>
-      <c r="X3">
-        <v>378.83354703763138</v>
-      </c>
-      <c r="Y3">
-        <v>506.45897596316445</v>
-      </c>
-      <c r="Z3">
-        <v>341.10286714437922</v>
-      </c>
-      <c r="AA3">
-        <v>390.77367707236061</v>
-      </c>
-      <c r="AB3">
-        <v>280.14809348617956</v>
-      </c>
-      <c r="AC3">
-        <v>341.72727167401098</v>
-      </c>
-      <c r="AD3">
-        <v>390.88737594727235</v>
-      </c>
-      <c r="AE3">
-        <v>264.24753535863783</v>
-      </c>
-      <c r="AF3">
-        <v>426.36129366138152</v>
-      </c>
-      <c r="AG3">
-        <v>296.61433988757466</v>
-      </c>
-      <c r="AH3">
-        <v>462.4965666845323</v>
-      </c>
-      <c r="AI3">
-        <v>352.01395131395981</v>
-      </c>
-      <c r="AJ3">
-        <v>679.75691277090255</v>
-      </c>
-      <c r="AK3">
-        <v>331.65653786190506</v>
-      </c>
-      <c r="AL3">
-        <v>495.64278269615221</v>
-      </c>
-      <c r="AM3">
-        <v>630.06753096758405</v>
-      </c>
-      <c r="AN3">
-        <v>333.83415330859907</v>
-      </c>
       <c r="AO3">
-        <v>574.4739666616947</v>
+        <v>574.47396520433028</v>
       </c>
       <c r="AP3">
-        <v>405.55238473541846</v>
+        <v>405.55238414202881</v>
       </c>
       <c r="AQ3">
-        <v>345.12933376271195</v>
+        <v>345.12933316689646</v>
       </c>
       <c r="AR3">
-        <v>588.48482553864517</v>
+        <v>588.48482407890594</v>
       </c>
       <c r="AS3">
-        <v>495.7668947974098</v>
+        <v>495.76689403341294</v>
       </c>
       <c r="AT3">
-        <v>299.54127184288524</v>
+        <v>299.5412713430876</v>
       </c>
       <c r="AU3">
-        <v>676.10378677596145</v>
+        <v>676.10378526446004</v>
       </c>
       <c r="AV3">
-        <v>312.97361124101553</v>
+        <v>312.97361080564002</v>
       </c>
       <c r="AW3">
-        <v>302.15182047333968</v>
+        <v>302.15181993512573</v>
       </c>
       <c r="AX3">
-        <v>534.10622062615153</v>
+        <v>534.10621957810838</v>
       </c>
       <c r="AY3">
-        <v>399.2711561894277</v>
+        <v>399.27115488002937</v>
       </c>
     </row>
   </sheetData>
